--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T13:27:06+00:00</t>
+    <t>2024-02-07T10:51:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T10:51:16+00:00</t>
+    <t>2024-02-07T12:41:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T12:41:41+00:00</t>
+    <t>2024-02-07T13:10:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T13:10:13+00:00</t>
+    <t>2024-02-11T13:41:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-11T13:41:38+00:00</t>
+    <t>2024-02-11T13:51:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-11T13:51:29+00:00</t>
+    <t>2024-02-11T14:03:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-11T14:03:23+00:00</t>
+    <t>2024-02-11T15:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-11T15:25:57+00:00</t>
+    <t>2024-02-11T15:31:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-11T15:31:51+00:00</t>
+    <t>2024-02-15T16:52:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:52:36+00:00</t>
+    <t>2024-02-23T13:17:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0-ballot</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T09:01:38+00:00</t>
+    <t>2024-04-29T12:18:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T12:18:11+00:00</t>
+    <t>2024-04-29T12:26:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T12:26:18+00:00</t>
+    <t>2024-04-29T12:27:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T12:27:28+00:00</t>
+    <t>2024-04-29T12:45:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T12:45:28+00:00</t>
+    <t>2024-04-29T12:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T15:04:57+00:00</t>
+    <t>2024-04-29T15:06:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T15:06:04+00:00</t>
+    <t>2024-08-26T14:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
